--- a/Часы.xlsx
+++ b/Часы.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnatoliyChigirinskiy\Desktop\Книги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C12AE-7E33-49A0-A07D-8ADF72BE9166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9642856E-CBA0-423E-BF0B-B075C6AF24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Июль</t>
   </si>
@@ -57,13 +57,16 @@
     <t>Март</t>
   </si>
   <si>
-    <t xml:space="preserve">Отработанные часы </t>
-  </si>
-  <si>
     <t>Апрель</t>
   </si>
   <si>
     <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отработанные часы </t>
   </si>
 </sst>
 </file>
@@ -122,82 +125,231 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -208,7 +360,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -216,25 +374,57 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -242,7 +432,7 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -267,18 +457,27 @@
         <v>6</v>
       </c>
       <c r="X1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -333,8 +532,26 @@
       <c r="AB3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>8</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -389,8 +606,26 @@
       <c r="AB4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -445,8 +680,26 @@
       <c r="AB5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -501,8 +754,26 @@
       <c r="AB6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>6</v>
+      </c>
+      <c r="AK6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -557,8 +828,26 @@
       <c r="AB7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>8</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>7</v>
+      </c>
+      <c r="AK7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -613,8 +902,26 @@
       <c r="AB8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>8</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>8</v>
+      </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -669,8 +976,26 @@
       <c r="AB9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>9</v>
+      </c>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -725,8 +1050,26 @@
       <c r="AB10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>8</v>
+      </c>
+      <c r="AJ10">
+        <v>12</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -781,8 +1124,26 @@
       <c r="AB11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>14</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>8</v>
+      </c>
+      <c r="AJ11">
+        <v>13</v>
+      </c>
+      <c r="AK11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -837,8 +1198,26 @@
       <c r="AB12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <v>8</v>
+      </c>
+      <c r="AG12">
+        <v>12</v>
+      </c>
+      <c r="AH12">
+        <v>8</v>
+      </c>
+      <c r="AJ12">
+        <v>14</v>
+      </c>
+      <c r="AK12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -893,8 +1272,26 @@
       <c r="AB13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>18</v>
+      </c>
+      <c r="AE13">
+        <v>8</v>
+      </c>
+      <c r="AG13">
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <v>8</v>
+      </c>
+      <c r="AJ13">
+        <v>15</v>
+      </c>
+      <c r="AK13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -946,8 +1343,26 @@
       <c r="AB14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD14">
+        <v>19</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+      <c r="AG14">
+        <v>16</v>
+      </c>
+      <c r="AH14">
+        <v>8</v>
+      </c>
+      <c r="AJ14">
+        <v>16</v>
+      </c>
+      <c r="AK14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -999,8 +1414,26 @@
       <c r="AB15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>20</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>17</v>
+      </c>
+      <c r="AH15">
+        <v>8</v>
+      </c>
+      <c r="AJ15">
+        <v>19</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -1052,8 +1485,26 @@
       <c r="AB16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>21</v>
+      </c>
+      <c r="AE16">
+        <v>8</v>
+      </c>
+      <c r="AG16">
+        <v>18</v>
+      </c>
+      <c r="AH16">
+        <v>8</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -1108,8 +1559,26 @@
       <c r="AB17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>24</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AG17">
+        <v>19</v>
+      </c>
+      <c r="AH17">
+        <v>8</v>
+      </c>
+      <c r="AJ17">
+        <v>21</v>
+      </c>
+      <c r="AK17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -1164,8 +1633,26 @@
       <c r="AB18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>22</v>
+      </c>
+      <c r="AH18">
+        <v>8</v>
+      </c>
+      <c r="AJ18">
+        <v>22</v>
+      </c>
+      <c r="AK18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -1220,8 +1707,26 @@
       <c r="AB19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD19">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>23</v>
+      </c>
+      <c r="AH19">
+        <v>8</v>
+      </c>
+      <c r="AJ19">
+        <v>23</v>
+      </c>
+      <c r="AK19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>26</v>
       </c>
@@ -1276,8 +1781,26 @@
       <c r="AB20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD20">
+        <v>27</v>
+      </c>
+      <c r="AE20">
+        <v>8</v>
+      </c>
+      <c r="AG20">
+        <v>24</v>
+      </c>
+      <c r="AH20">
+        <v>8</v>
+      </c>
+      <c r="AJ20">
+        <v>26</v>
+      </c>
+      <c r="AK20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>27</v>
       </c>
@@ -1332,8 +1855,26 @@
       <c r="AB21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>28</v>
+      </c>
+      <c r="AE21">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>8</v>
+      </c>
+      <c r="AJ21">
+        <v>27</v>
+      </c>
+      <c r="AK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -1388,8 +1929,20 @@
       <c r="AB22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG22">
+        <v>26</v>
+      </c>
+      <c r="AH22">
+        <v>8</v>
+      </c>
+      <c r="AJ22">
+        <v>28</v>
+      </c>
+      <c r="AK22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>31</v>
       </c>
@@ -1436,8 +1989,20 @@
       <c r="Y23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>29</v>
+      </c>
+      <c r="AH23">
+        <v>8</v>
+      </c>
+      <c r="AJ23">
+        <v>29</v>
+      </c>
+      <c r="AK23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>B24*175</f>
         <v>28350</v>
@@ -1472,16 +2037,38 @@
         <f>SUM(AB3:AB22)</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE24">
+        <f>SUM(AE3:AE21)</f>
+        <v>136</v>
+      </c>
+      <c r="AG24">
+        <v>30</v>
+      </c>
+      <c r="AH24">
+        <v>8</v>
+      </c>
+      <c r="AJ24">
+        <v>30</v>
+      </c>
+      <c r="AK24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>31</v>
       </c>
       <c r="E25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG25">
+        <v>31</v>
+      </c>
+      <c r="AH25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <f>SUM(E3:E25)-4</f>
         <v>169</v>
@@ -1522,8 +2109,16 @@
         <f>P26*J27</f>
         <v>34824.48192771084</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AH26">
+        <f>SUM(AH3:AH25)</f>
+        <v>144</v>
+      </c>
+      <c r="AK26">
+        <f>SUM(AK3:AK24)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
         <f>K27/J26</f>
         <v>229.10843373493975</v>
